--- a/assets/files/price_template.xlsx
+++ b/assets/files/price_template.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\website\trade\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wamp\www\trade\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="area" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,9 +25,1372 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>区域</t>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACAU </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNEI </t>
+  </si>
+  <si>
+    <t>南韩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOREA, SOUTH </t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALAYSIA </t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGAPORE </t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAIWAN </t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAILAND </t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAPAN </t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRALIA </t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW ZEALAND </t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMBODIA (KAMPUCHEA) </t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDONESIA </t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAOS </t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIETNAM </t>
+  </si>
+  <si>
+    <t>美属萨摩亚群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERICAN SAMOA </t>
+  </si>
+  <si>
+    <t>孟加拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANGLADESH </t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHUTAN </t>
+  </si>
+  <si>
+    <t>库克群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOK ISLANDS </t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAST TIMOR </t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIJI </t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUAM </t>
+  </si>
+  <si>
+    <t>基里巴斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRIBATI </t>
+  </si>
+  <si>
+    <t>北韩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOREA, NORTH </t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIECHTENSTEIN </t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALDIVES </t>
+  </si>
+  <si>
+    <t>马绍尔群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARSHALL ISLANDS </t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYANMAR (BURMA) </t>
+  </si>
+  <si>
+    <t>瑙鲁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAURU, REPUBLIC OF </t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEPAL </t>
+  </si>
+  <si>
+    <t>新喀里多尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW CALEDONIA </t>
+  </si>
+  <si>
+    <t>纽埃岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIUE </t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPUA NEW GUINEA </t>
+  </si>
+  <si>
+    <t>塞班岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAIPAN </t>
+  </si>
+  <si>
+    <t>萨摩亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMOA </t>
+  </si>
+  <si>
+    <t>所罗门群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLOMON ISLANDS </t>
+  </si>
+  <si>
+    <t>大溪地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAHITI </t>
+  </si>
+  <si>
+    <t>汤加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TONGA </t>
+  </si>
+  <si>
+    <t>图瓦卢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUVALU </t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANUATU </t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIA </t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRI LANKA </t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAKISTAN </t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED STATES OF AMERICA </t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANADA </t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEXICO </t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELGIUM </t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCE </t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMANY </t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITALY </t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUXEMBOURG </t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETHERLANDS, THE </t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN MARINO </t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED KINGDOM </t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRIA </t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENMARK </t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINLAND </t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREECE </t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERNSEY </t>
+  </si>
+  <si>
+    <t>爱尔兰共和国</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>泽西岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JERSEY </t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORWAY </t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTUGAL </t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAIN </t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEDEN </t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITZERLAND </t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BULGARIA </t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYPRUS </t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTONIA </t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATVIA </t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITHUANIA </t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALTA </t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOVAKIA </t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOVENIA </t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZECH REPUBLIC, THE </t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUNGARY </t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLAND </t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMANIA </t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDORRA </t>
+  </si>
+  <si>
+    <t>加那利群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANARY ISLANDS, THE </t>
+  </si>
+  <si>
+    <t>非罗岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAROE ISLANDS </t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIBRALTAR </t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREENLAND </t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICELAND </t>
+  </si>
+  <si>
+    <t>阿富汉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFGHANISTAN </t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBANIA </t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMENIA </t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZERBAIJAN </t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELARUS </t>
+  </si>
+  <si>
+    <t>波黑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSNIA &amp; HERZEGOVINA </t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROATIA </t>
+  </si>
+  <si>
+    <t>福克兰群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALKLAND ISLANDS </t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEORGIA </t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAZAKHSTAN </t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOSOVO </t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯担</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYRGYZSTAN </t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACEDONIA, REPUBLIC OF </t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLDOVA, REPUBLIC OF </t>
+  </si>
+  <si>
+    <t>黑山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTENEGRO </t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUSSIAN FEDERATION, THE </t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERBIA </t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAJIKISTAN </t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKRAINE </t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZBEKISTAN </t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHRAIN </t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAN, ISLAMIC REPUBLIC OF </t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORDAN </t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUWAIT </t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATAR </t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED ARAB EMIRATES </t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURKEY </t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAQ </t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRAEL </t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEBANON </t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMAN </t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAUDI ARABIA </t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDAN </t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYRIA </t>
+  </si>
+  <si>
+    <t>也门共和国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEMEN </t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGYPT </t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERITREA </t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHIOPIA </t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENYA </t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBYA </t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH AFRICA </t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGANDA </t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALGERIA </t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENIN </t>
+  </si>
+  <si>
+    <t>博茨瓦纳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTSWANA </t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURUNDI </t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMEROON </t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPE VERDE </t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAD </t>
+  </si>
+  <si>
+    <t>科摩罗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMOROS </t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONGO </t>
+  </si>
+  <si>
+    <t>吉布堤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJIBOUTI </t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUATORIAL GUINEA </t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABON </t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBIA </t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHANA </t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESOTHO </t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADAGASCAR </t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALAWI </t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURITANIA </t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURITIUS </t>
+  </si>
+  <si>
+    <t>马约特岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYOTTE </t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOROCCO </t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOZAMBIQUE </t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMIBIA </t>
+  </si>
+  <si>
+    <t>尼日利亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGERIA </t>
+  </si>
+  <si>
+    <t>留尼汪岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REUNION, ISLAND OF </t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWANDA </t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENEGAL </t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEYCHELLES </t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOMALIA </t>
+  </si>
+  <si>
+    <t>索马里兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOMALILAND, REPUBLIC OF (N. SOMALIA) </t>
+  </si>
+  <si>
+    <t>斯威士兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAZILAND </t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANZANIA </t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOGO </t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUNISIA </t>
+  </si>
+  <si>
+    <t>赞比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBIA </t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIMBABWE </t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUINEA-BISSAU </t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGOLA </t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONGO, THE DEMOCRATIC REPUBLIC OF </t>
+  </si>
+  <si>
+    <t>科特迪瓦(象牙海岸)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTE D'IVOIRE (IVORYCOAST) </t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURKINA FASO </t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL AFRICAN REPUBLIC </t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUINEA REPUBLIC </t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBERIA </t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALI </t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGER </t>
+  </si>
+  <si>
+    <t>塞拉里昂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA LEONE </t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMINICA </t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONDURAS </t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANAMA </t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENEZUELA </t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILE </t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTA RICA </t>
+  </si>
+  <si>
+    <t>多米尼加共和国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMINICAN REPUBLIC </t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERU </t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINIDAD &amp; TOBAGO </t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGENTINA </t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAZIL </t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA </t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMAICA </t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URUGUAY </t>
+  </si>
+  <si>
+    <t>安圭拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGUILLA </t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIGUA </t>
+  </si>
+  <si>
+    <t>阿鲁巴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARUBA </t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHAMAS </t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARBADOS </t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELIZE </t>
+  </si>
+  <si>
+    <t>百慕达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERMUDA </t>
+  </si>
+  <si>
+    <t>波利维亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLIVIA </t>
+  </si>
+  <si>
+    <t>博内尔岛（荷属安地列斯）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONAIRE </t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAYMAN ISLANDS </t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBIA </t>
+  </si>
+  <si>
+    <t>库腊索(荷属安地列斯)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURACAO </t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECUADOR </t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL SALVADOR </t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENCH GUYANA </t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRENADA </t>
+  </si>
+  <si>
+    <t>厄德罗普</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUADELOUPE </t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUATEMALA </t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUYANA (BRITISH) </t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAITI </t>
+  </si>
+  <si>
+    <t>马提尼克岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINIQUE </t>
+  </si>
+  <si>
+    <t>蒙古</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONGOLIA </t>
+  </si>
+  <si>
+    <t>蒙特塞拉特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTSERRAT </t>
+  </si>
+  <si>
+    <t>尼维斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVIS </t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICARAGUA </t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO RICO </t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAO TOME &amp; PRINCIPE </t>
+  </si>
+  <si>
+    <t>圣巴夫林米（瓜德罗普岛）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. BARTHELEMY </t>
+  </si>
+  <si>
+    <t>圣尤斯特歇斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. EUSTATIUS </t>
+  </si>
+  <si>
+    <t>圣基茨和尼维斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. KITTS </t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. LUCIA </t>
+  </si>
+  <si>
+    <t>圣马藤岛（荷属安地列斯）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. MAARTEN </t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. VINCENT </t>
+  </si>
+  <si>
+    <t>苏里南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURINAME </t>
+  </si>
+  <si>
+    <t>特克斯和凯科斯群岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURKS &amp; CAICOS ISLANDS </t>
+  </si>
+  <si>
+    <t>维尔克戈达岛（英属维尔群岛）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRGIN ISLANDS (BRITISH) </t>
+  </si>
+  <si>
+    <t>维尔克戈达岛（美属维尔群岛）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRGIN ISLANDS (U.S.) </t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAGUAY </t>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -38,7 +1402,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +1452,39 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -293,13 +1683,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,9 +1762,28 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_Sheet1 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
@@ -5222,4 +6634,2511 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="28">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="28">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="28">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="28">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="28">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="28">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="28">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="28">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="28">
+        <v>5</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="28">
+        <v>5</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="28">
+        <v>6</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="28">
+        <v>6</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="28">
+        <v>6</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="28">
+        <v>6</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28">
+        <v>6</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="28">
+        <v>6</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28">
+        <v>6</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="28">
+        <v>6</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28">
+        <v>6</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="28">
+        <v>6</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="28">
+        <v>6</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="28">
+        <v>6</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28">
+        <v>6</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28">
+        <v>6</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28">
+        <v>6</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="28">
+        <v>6</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="28">
+        <v>6</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="28">
+        <v>6</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="28">
+        <v>6</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="28">
+        <v>6</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="28">
+        <v>6</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="28">
+        <v>6</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="28">
+        <v>6</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="28">
+        <v>6</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="28">
+        <v>7</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="28">
+        <v>7</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="28">
+        <v>8</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="28">
+        <v>9</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="28">
+        <v>10</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="28">
+        <v>11</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="28">
+        <v>12</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="28">
+        <v>12</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="28">
+        <v>12</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="28">
+        <v>12</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="28">
+        <v>12</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="28">
+        <v>12</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="28">
+        <v>12</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="28">
+        <v>12</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="28">
+        <v>13</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="28">
+        <v>13</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="28">
+        <v>13</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="28">
+        <v>13</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="28">
+        <v>13</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="28">
+        <v>13</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="28">
+        <v>13</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="28">
+        <v>13</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="28">
+        <v>13</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="28">
+        <v>13</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="28">
+        <v>13</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="28">
+        <v>13</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="28">
+        <v>14</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="28">
+        <v>14</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="28">
+        <v>14</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="28">
+        <v>14</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="28">
+        <v>14</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="28">
+        <v>14</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="28">
+        <v>14</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="28">
+        <v>14</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="28">
+        <v>15</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="28">
+        <v>15</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="28">
+        <v>15</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="28">
+        <v>15</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="28">
+        <v>16</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="28">
+        <v>16</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="28">
+        <v>16</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="28">
+        <v>16</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="28">
+        <v>16</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="28">
+        <v>16</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="28">
+        <v>17</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="28">
+        <v>17</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="28">
+        <v>17</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="28">
+        <v>17</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="28">
+        <v>17</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="28">
+        <v>17</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="28">
+        <v>17</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="28">
+        <v>17</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="28">
+        <v>17</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="28">
+        <v>17</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="28">
+        <v>17</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="28">
+        <v>17</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="28">
+        <v>17</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="28">
+        <v>17</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="28">
+        <v>17</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="28">
+        <v>17</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="28">
+        <v>17</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="28">
+        <v>17</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="28">
+        <v>17</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="28">
+        <v>17</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="28">
+        <v>18</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="28">
+        <v>18</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="28">
+        <v>18</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="28">
+        <v>18</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="28">
+        <v>18</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="28">
+        <v>18</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="28">
+        <v>19</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="28">
+        <v>20</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="28">
+        <v>20</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="28">
+        <v>20</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="28">
+        <v>20</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="28">
+        <v>20</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="28">
+        <v>20</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="28">
+        <v>20</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="28">
+        <v>20</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="28">
+        <v>21</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="28">
+        <v>22</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="28">
+        <v>22</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="28">
+        <v>22</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="28">
+        <v>22</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="28">
+        <v>22</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="28">
+        <v>22</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="28">
+        <v>23</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="28">
+        <v>23</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="28">
+        <v>23</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="28">
+        <v>23</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="28">
+        <v>23</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="28">
+        <v>23</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="28">
+        <v>23</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="28">
+        <v>23</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="28">
+        <v>23</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="28">
+        <v>23</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="28">
+        <v>23</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="28">
+        <v>23</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="28">
+        <v>23</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="28">
+        <v>23</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="28">
+        <v>23</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="28">
+        <v>23</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="28">
+        <v>23</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="28">
+        <v>23</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="28">
+        <v>23</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="28">
+        <v>23</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="28">
+        <v>23</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="28">
+        <v>23</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="28">
+        <v>23</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="28">
+        <v>23</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="28">
+        <v>23</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="28">
+        <v>23</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="28">
+        <v>23</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="28">
+        <v>23</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="28">
+        <v>23</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="28">
+        <v>23</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="28">
+        <v>23</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="28">
+        <v>23</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="28">
+        <v>23</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="28">
+        <v>23</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="28">
+        <v>23</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="28">
+        <v>23</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="28">
+        <v>23</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="28">
+        <v>24</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="28">
+        <v>24</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="28">
+        <v>24</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="28">
+        <v>25</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="28">
+        <v>25</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="28">
+        <v>25</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="28">
+        <v>25</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="28">
+        <v>25</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="28">
+        <v>25</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="28">
+        <v>25</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="28">
+        <v>26</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="28">
+        <v>26</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="28">
+        <v>26</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="28">
+        <v>26</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="28">
+        <v>27</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="28">
+        <v>27</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="28">
+        <v>27</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="28">
+        <v>27</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="28">
+        <v>27</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="28">
+        <v>28</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="28">
+        <v>28</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="28">
+        <v>28</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="28">
+        <v>28</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="28">
+        <v>28</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="28">
+        <v>29</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="28">
+        <v>29</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="28">
+        <v>29</v>
+      </c>
+      <c r="B191" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="28">
+        <v>29</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="28">
+        <v>29</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="28">
+        <v>29</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="28">
+        <v>29</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="28">
+        <v>29</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="28">
+        <v>29</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="28">
+        <v>29</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="28">
+        <v>29</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="28">
+        <v>29</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="28">
+        <v>29</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="28">
+        <v>29</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="28">
+        <v>29</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="28">
+        <v>29</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="28">
+        <v>29</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="28">
+        <v>29</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="28">
+        <v>29</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="28">
+        <v>29</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="28">
+        <v>29</v>
+      </c>
+      <c r="B209" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="28">
+        <v>29</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="28">
+        <v>29</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="28">
+        <v>29</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="28">
+        <v>29</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="28">
+        <v>29</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="28">
+        <v>29</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="28">
+        <v>29</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="28">
+        <v>29</v>
+      </c>
+      <c r="B217" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="28">
+        <v>29</v>
+      </c>
+      <c r="B218" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="28">
+        <v>29</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="28">
+        <v>29</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="28">
+        <v>29</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="28">
+        <v>29</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="28">
+        <v>29</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="28">
+        <v>29</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="28">
+        <v>29</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C225" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="28">
+        <v>30</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>